--- a/Snr Sheet.xlsx
+++ b/Snr Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jmistudent-my.sharepoint.com/personal/aatif187899_st_jmi_ac_in/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D368BAD5-1824-407B-9BC7-015AF7CA8AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D690255-CE44-417C-8DCE-534B3E5887EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16440" firstSheet="17" activeTab="17" xr2:uid="{D5265C2E-6317-3044-9590-C765FDB70368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" firstSheet="17" activeTab="15" xr2:uid="{D5265C2E-6317-3044-9590-C765FDB70368}"/>
   </bookViews>
   <sheets>
     <sheet name="How to Use This Sheet " sheetId="21" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="755">
   <si>
     <t>DYNAMIC PROGRAMMING</t>
   </si>
@@ -2325,12 +2325,21 @@
   <si>
     <t>Valid Number    </t>
   </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>Not Able To Solve In First Attempt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2390,8 +2399,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2401,6 +2418,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2470,7 +2499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2518,6 +2547,15 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2887,9 +2925,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="5:26" ht="18.95">
+    <row r="1" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -2907,7 +2945,7 @@
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
     </row>
-    <row r="2" spans="5:26" ht="18.95">
+    <row r="2" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -2925,7 +2963,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
     </row>
-    <row r="3" spans="5:26" ht="18.75">
+    <row r="3" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -2949,7 +2987,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4" spans="5:26" ht="18.75">
+    <row r="4" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -2973,7 +3011,7 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" spans="5:26" ht="18.75">
+    <row r="5" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -2997,7 +3035,7 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
     </row>
-    <row r="6" spans="5:26" ht="18.75">
+    <row r="6" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -3021,7 +3059,7 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
     </row>
-    <row r="7" spans="5:26" ht="18.75">
+    <row r="7" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -3045,7 +3083,7 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
     </row>
-    <row r="8" spans="5:26" ht="18.75">
+    <row r="8" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -3069,7 +3107,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="5:26" ht="18.75">
+    <row r="9" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -3093,7 +3131,7 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" spans="5:26" ht="15.95" customHeight="1">
+    <row r="10" spans="5:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -3117,7 +3155,7 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11" spans="5:26" ht="15.95" customHeight="1">
+    <row r="11" spans="5:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -3141,7 +3179,7 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="5:26" ht="18.75">
+    <row r="12" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -3165,7 +3203,7 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" spans="5:26" ht="18.95">
+    <row r="13" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -3183,7 +3221,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="5:26" ht="18.95">
+    <row r="14" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -3225,7 +3263,7 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -3234,7 +3272,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3251,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="35.1" thickBot="1">
+    <row r="3" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>346</v>
       </c>
@@ -3265,7 +3303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>621</v>
       </c>
@@ -3279,7 +3317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>622</v>
       </c>
@@ -3293,7 +3331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="35.1" thickBot="1">
+    <row r="6" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>363</v>
       </c>
@@ -3307,7 +3345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>353</v>
       </c>
@@ -3321,7 +3359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="35.1" thickBot="1">
+    <row r="8" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>862</v>
       </c>
@@ -3359,7 +3397,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -3368,7 +3406,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3385,7 +3423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>977</v>
       </c>
@@ -3399,7 +3437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>723</v>
       </c>
@@ -3413,7 +3451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>344</v>
       </c>
@@ -3427,7 +3465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>986</v>
       </c>
@@ -3441,7 +3479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>349</v>
       </c>
@@ -3455,7 +3493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1004</v>
       </c>
@@ -3469,7 +3507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>283</v>
       </c>
@@ -3483,7 +3521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="35.1" thickBot="1">
+    <row r="10" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>167</v>
       </c>
@@ -3497,7 +3535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>287</v>
       </c>
@@ -3511,7 +3549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>350</v>
       </c>
@@ -3525,7 +3563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -3539,7 +3577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>844</v>
       </c>
@@ -3553,7 +3591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42</v>
       </c>
@@ -3567,7 +3605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="35.1" thickBot="1">
+    <row r="16" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>992</v>
       </c>
@@ -3581,7 +3619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3595,7 +3633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>75</v>
       </c>
@@ -3609,7 +3647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="35.1" thickBot="1">
+    <row r="19" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>26</v>
       </c>
@@ -3623,7 +3661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>567</v>
       </c>
@@ -3637,7 +3675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>86</v>
       </c>
@@ -3651,7 +3689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>141</v>
       </c>
@@ -3665,7 +3703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>713</v>
       </c>
@@ -3679,7 +3717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>88</v>
       </c>
@@ -3693,7 +3731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>234</v>
       </c>
@@ -3707,7 +3745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>209</v>
       </c>
@@ -3721,7 +3759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="35.1" thickBot="1">
+    <row r="27" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>19</v>
       </c>
@@ -3735,7 +3773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>125</v>
       </c>
@@ -3749,7 +3787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3763,7 +3801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>76</v>
       </c>
@@ -3777,7 +3815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>18</v>
       </c>
@@ -3791,7 +3829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>532</v>
       </c>
@@ -3805,7 +3843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="35.1" thickBot="1">
+    <row r="33" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>3</v>
       </c>
@@ -3819,7 +3857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>61</v>
       </c>
@@ -3833,7 +3871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>15</v>
       </c>
@@ -3847,7 +3885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="35.1" thickBot="1">
+    <row r="36" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -3913,7 +3951,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -3922,7 +3960,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3939,7 +3977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1086</v>
       </c>
@@ -3953,7 +3991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1122</v>
       </c>
@@ -3967,7 +4005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>969</v>
       </c>
@@ -3981,7 +4019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>280</v>
       </c>
@@ -3995,7 +4033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>973</v>
       </c>
@@ -4009,7 +4047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>349</v>
       </c>
@@ -4023,7 +4061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1057</v>
       </c>
@@ -4037,7 +4075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>296</v>
       </c>
@@ -4051,7 +4089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>242</v>
       </c>
@@ -4065,7 +4103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>252</v>
       </c>
@@ -4079,7 +4117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>350</v>
       </c>
@@ -4093,7 +4131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>767</v>
       </c>
@@ -4107,7 +4145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>253</v>
       </c>
@@ -4121,7 +4159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>75</v>
       </c>
@@ -4135,7 +4173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="35.1" thickBot="1">
+    <row r="17" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>315</v>
       </c>
@@ -4149,7 +4187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>148</v>
       </c>
@@ -4163,7 +4201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>56</v>
       </c>
@@ -4177,7 +4215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>274</v>
       </c>
@@ -4191,7 +4229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>164</v>
       </c>
@@ -4205,7 +4243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>57</v>
       </c>
@@ -4219,7 +4257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>324</v>
       </c>
@@ -4233,7 +4271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>179</v>
       </c>
@@ -4247,7 +4285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>493</v>
       </c>
@@ -4302,7 +4340,7 @@
       <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -4311,7 +4349,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -4328,7 +4366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>771</v>
       </c>
@@ -4342,7 +4380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>535</v>
       </c>
@@ -4356,7 +4394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1086</v>
       </c>
@@ -4370,7 +4408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>359</v>
       </c>
@@ -4384,7 +4422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>811</v>
       </c>
@@ -4398,7 +4436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1002</v>
       </c>
@@ -4412,7 +4450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>136</v>
       </c>
@@ -4426,7 +4464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>463</v>
       </c>
@@ -4440,7 +4478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>739</v>
       </c>
@@ -4454,7 +4492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>94</v>
       </c>
@@ -4468,7 +4506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>895</v>
       </c>
@@ -4482,7 +4520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>349</v>
       </c>
@@ -4496,7 +4534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>311</v>
       </c>
@@ -4510,7 +4548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>706</v>
       </c>
@@ -4524,7 +4562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>347</v>
       </c>
@@ -4538,7 +4576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>609</v>
       </c>
@@ -4552,7 +4590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1166</v>
       </c>
@@ -4566,7 +4604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>953</v>
       </c>
@@ -4580,7 +4618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>242</v>
       </c>
@@ -4594,7 +4632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>694</v>
       </c>
@@ -4608,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1048</v>
       </c>
@@ -4622,7 +4660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>49</v>
       </c>
@@ -4636,7 +4674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>939</v>
       </c>
@@ -4650,7 +4688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>981</v>
       </c>
@@ -4664,7 +4702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="35.1" thickBot="1">
+    <row r="27" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>387</v>
       </c>
@@ -4678,7 +4716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>244</v>
       </c>
@@ -4692,7 +4730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>350</v>
       </c>
@@ -4706,7 +4744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>692</v>
       </c>
@@ -4720,7 +4758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>554</v>
       </c>
@@ -4734,7 +4772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="35.1" thickBot="1">
+    <row r="32" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>718</v>
       </c>
@@ -4748,7 +4786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>202</v>
       </c>
@@ -4762,7 +4800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>974</v>
       </c>
@@ -4776,7 +4814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>770</v>
       </c>
@@ -4790,7 +4828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -4804,7 +4842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="35.1" thickBot="1">
+    <row r="37" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>992</v>
       </c>
@@ -4818,7 +4856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -4832,7 +4870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>380</v>
       </c>
@@ -4846,7 +4884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" thickBot="1">
+    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>525</v>
       </c>
@@ -4860,7 +4898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>560</v>
       </c>
@@ -4874,7 +4912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="35.1" thickBot="1">
+    <row r="42" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>314</v>
       </c>
@@ -4888,7 +4926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="35.1" thickBot="1">
+    <row r="43" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>340</v>
       </c>
@@ -4902,7 +4940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1">
+    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>299</v>
       </c>
@@ -4916,7 +4954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" thickBot="1">
+    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>37</v>
       </c>
@@ -4930,7 +4968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18" thickBot="1">
+    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>438</v>
       </c>
@@ -4944,7 +4982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" thickBot="1">
+    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>957</v>
       </c>
@@ -4958,7 +4996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18" thickBot="1">
+    <row r="48" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>443</v>
       </c>
@@ -4972,7 +5010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" thickBot="1">
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>85</v>
       </c>
@@ -4986,7 +5024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" thickBot="1">
+    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>274</v>
       </c>
@@ -5000,7 +5038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="35.1" thickBot="1">
+    <row r="51" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>987</v>
       </c>
@@ -5014,7 +5052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="35.1" thickBot="1">
+    <row r="52" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>381</v>
       </c>
@@ -5028,7 +5066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" thickBot="1">
+    <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>76</v>
       </c>
@@ -5042,7 +5080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1">
+    <row r="54" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>336</v>
       </c>
@@ -5056,7 +5094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" thickBot="1">
+    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>18</v>
       </c>
@@ -5070,7 +5108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" thickBot="1">
+    <row r="56" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>138</v>
       </c>
@@ -5084,7 +5122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" thickBot="1">
+    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>204</v>
       </c>
@@ -5098,7 +5136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="35.1" thickBot="1">
+    <row r="58" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>3</v>
       </c>
@@ -5112,7 +5150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18" thickBot="1">
+    <row r="59" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>355</v>
       </c>
@@ -5126,7 +5164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" thickBot="1">
+    <row r="60" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>1044</v>
       </c>
@@ -5140,7 +5178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="35.1" thickBot="1">
+    <row r="61" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>30</v>
       </c>
@@ -5154,7 +5192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18" thickBot="1">
+    <row r="62" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>166</v>
       </c>
@@ -5168,7 +5206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" thickBot="1">
+    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>149</v>
       </c>
@@ -5261,7 +5299,7 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -5270,7 +5308,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5287,7 +5325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>852</v>
       </c>
@@ -5301,7 +5339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>349</v>
       </c>
@@ -5315,7 +5353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="35.1" thickBot="1">
+    <row r="5" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1011</v>
       </c>
@@ -5329,7 +5367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>230</v>
       </c>
@@ -5343,7 +5381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="35.1" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1060</v>
       </c>
@@ -5357,7 +5395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="35.1" thickBot="1">
+    <row r="8" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>167</v>
       </c>
@@ -5371,7 +5409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>287</v>
       </c>
@@ -5385,7 +5423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>981</v>
       </c>
@@ -5399,7 +5437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="35.1" thickBot="1">
+    <row r="11" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>378</v>
       </c>
@@ -5413,7 +5451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>350</v>
       </c>
@@ -5427,7 +5465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>875</v>
       </c>
@@ -5441,7 +5479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="35.1" thickBot="1">
+    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>718</v>
       </c>
@@ -5455,7 +5493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="35.1" thickBot="1">
+    <row r="15" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>270</v>
       </c>
@@ -5469,7 +5507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="35.1" thickBot="1">
+    <row r="16" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>352</v>
       </c>
@@ -5483,7 +5521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="35.1" thickBot="1">
+    <row r="17" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>153</v>
       </c>
@@ -5497,7 +5535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>528</v>
       </c>
@@ -5511,7 +5549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>410</v>
       </c>
@@ -5525,7 +5563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>162</v>
       </c>
@@ -5539,7 +5577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>240</v>
       </c>
@@ -5553,7 +5591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="35.1" thickBot="1">
+    <row r="22" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>300</v>
       </c>
@@ -5567,7 +5605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="35.1" thickBot="1">
+    <row r="23" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>315</v>
       </c>
@@ -5581,7 +5619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>222</v>
       </c>
@@ -5595,7 +5633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>658</v>
       </c>
@@ -5609,7 +5647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>209</v>
       </c>
@@ -5623,7 +5661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="35.1" thickBot="1">
+    <row r="27" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>363</v>
       </c>
@@ -5637,7 +5675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>74</v>
       </c>
@@ -5651,7 +5689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="35.1" thickBot="1">
+    <row r="29" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>34</v>
       </c>
@@ -5665,7 +5703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>354</v>
       </c>
@@ -5679,7 +5717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -5693,7 +5731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="35.1" thickBot="1">
+    <row r="32" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>81</v>
       </c>
@@ -5707,7 +5745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>69</v>
       </c>
@@ -5721,7 +5759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>278</v>
       </c>
@@ -5735,7 +5773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>50</v>
       </c>
@@ -5749,7 +5787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>475</v>
       </c>
@@ -5763,7 +5801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1">
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>887</v>
       </c>
@@ -5777,7 +5815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1044</v>
       </c>
@@ -5791,7 +5829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>493</v>
       </c>
@@ -5805,7 +5843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="35.1" thickBot="1">
+    <row r="40" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>862</v>
       </c>
@@ -5819,7 +5857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>29</v>
       </c>
@@ -5890,7 +5928,7 @@
       <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -5899,7 +5937,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5916,7 +5954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>763</v>
       </c>
@@ -5930,7 +5968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>759</v>
       </c>
@@ -5944,7 +5982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1046</v>
       </c>
@@ -5958,7 +5996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="35.1" thickBot="1">
+    <row r="6" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>406</v>
       </c>
@@ -5972,7 +6010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="35.1" thickBot="1">
+    <row r="7" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1167</v>
       </c>
@@ -5986,7 +6024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1057</v>
       </c>
@@ -6000,7 +6038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1055</v>
       </c>
@@ -6014,7 +6052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1029</v>
       </c>
@@ -6028,7 +6066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="35.1" thickBot="1">
+    <row r="11" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>122</v>
       </c>
@@ -6042,7 +6080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="35.1" thickBot="1">
+    <row r="12" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>714</v>
       </c>
@@ -6056,7 +6094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1231</v>
       </c>
@@ -6070,7 +6108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="35.1" thickBot="1">
+    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1007</v>
       </c>
@@ -6084,7 +6122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="35.1" thickBot="1">
+    <row r="15" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>452</v>
       </c>
@@ -6098,7 +6136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>392</v>
       </c>
@@ -6112,7 +6150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>621</v>
       </c>
@@ -6126,7 +6164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>767</v>
       </c>
@@ -6140,7 +6178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>253</v>
       </c>
@@ -6154,7 +6192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>991</v>
       </c>
@@ -6168,7 +6206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="35.1" thickBot="1">
+    <row r="21" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>659</v>
       </c>
@@ -6182,7 +6220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>435</v>
       </c>
@@ -6196,7 +6234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="35.1" thickBot="1">
+    <row r="23" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>757</v>
       </c>
@@ -6210,7 +6248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>936</v>
       </c>
@@ -6224,7 +6262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>134</v>
       </c>
@@ -6238,7 +6276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>316</v>
       </c>
@@ -6252,7 +6290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>330</v>
       </c>
@@ -6266,7 +6304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>55</v>
       </c>
@@ -6280,7 +6318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>135</v>
       </c>
@@ -6294,7 +6332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45</v>
       </c>
@@ -6308,7 +6346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>402</v>
       </c>
@@ -6322,7 +6360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>321</v>
       </c>
@@ -6336,7 +6374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>44</v>
       </c>
@@ -6393,13 +6431,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45438C9-D009-8F4A-BE62-C097380EFD67}">
-  <dimension ref="A2:E108"/>
+  <dimension ref="A2:F109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -6408,7 +6446,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -6425,7 +6463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>832</v>
       </c>
@@ -6438,8 +6476,12 @@
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+      <c r="E3" s="18"/>
+      <c r="F3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>905</v>
       </c>
@@ -6452,8 +6494,12 @@
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+      <c r="E4" s="18"/>
+      <c r="F4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>950</v>
       </c>
@@ -6466,8 +6512,14 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+      <c r="E5" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="F5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>561</v>
       </c>
@@ -6480,8 +6532,12 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+      <c r="E6" s="19"/>
+      <c r="F6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1051</v>
       </c>
@@ -6494,8 +6550,12 @@
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+      <c r="E7" s="19"/>
+      <c r="F7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>723</v>
       </c>
@@ -6508,8 +6568,12 @@
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+      <c r="E8" s="19"/>
+      <c r="F8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1002</v>
       </c>
@@ -6522,8 +6586,12 @@
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1">
+      <c r="E9" s="19"/>
+      <c r="F9" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>969</v>
       </c>
@@ -6536,8 +6604,12 @@
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+      <c r="E10" s="19"/>
+      <c r="F10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>867</v>
       </c>
@@ -6550,8 +6622,12 @@
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+      <c r="E11" s="19"/>
+      <c r="F11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>442</v>
       </c>
@@ -6564,8 +6640,12 @@
       <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+      <c r="E12" s="19"/>
+      <c r="F12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>766</v>
       </c>
@@ -6578,8 +6658,12 @@
       <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+      <c r="E13" s="19"/>
+      <c r="F13" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>280</v>
       </c>
@@ -6592,8 +6676,12 @@
       <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="35.1" thickBot="1">
+      <c r="E14" s="19"/>
+      <c r="F14" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1074</v>
       </c>
@@ -6606,8 +6694,12 @@
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+      <c r="E15" s="19"/>
+      <c r="F15" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>695</v>
       </c>
@@ -6620,8 +6712,12 @@
       <c r="D16" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+      <c r="E16" s="19"/>
+      <c r="F16" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>566</v>
       </c>
@@ -6634,8 +6730,12 @@
       <c r="D17" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+      <c r="E17" s="19"/>
+      <c r="F17" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>243</v>
       </c>
@@ -6648,8 +6748,12 @@
       <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+      <c r="E18" s="19"/>
+      <c r="F18" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>238</v>
       </c>
@@ -6662,8 +6766,12 @@
       <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+      <c r="E19" s="19"/>
+      <c r="F19" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>78</v>
       </c>
@@ -6676,8 +6784,12 @@
       <c r="D20" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+      <c r="E20" s="19"/>
+      <c r="F20" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>283</v>
       </c>
@@ -6690,8 +6802,12 @@
       <c r="D21" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+      <c r="E21" s="19"/>
+      <c r="F21" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>485</v>
       </c>
@@ -6704,8 +6820,12 @@
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E22" s="19"/>
+      <c r="F22" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1031</v>
       </c>
@@ -6718,8 +6838,12 @@
       <c r="D23" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+      <c r="E23" s="19"/>
+      <c r="F23" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>169</v>
       </c>
@@ -6732,8 +6856,12 @@
       <c r="D24" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+      <c r="E24" s="19"/>
+      <c r="F24" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>835</v>
       </c>
@@ -6746,8 +6874,12 @@
       <c r="D25" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E25" s="19"/>
+      <c r="F25" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>448</v>
       </c>
@@ -6760,8 +6892,12 @@
       <c r="D26" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
+      <c r="E26" s="19"/>
+      <c r="F26" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>217</v>
       </c>
@@ -6774,8 +6910,12 @@
       <c r="D27" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+      <c r="E27" s="19"/>
+      <c r="F27" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>565</v>
       </c>
@@ -6788,8 +6928,12 @@
       <c r="D28" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+      <c r="E28" s="19"/>
+      <c r="F28" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>216</v>
       </c>
@@ -6802,8 +6946,12 @@
       <c r="D29" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+      <c r="E29" s="19"/>
+      <c r="F29" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>122</v>
       </c>
@@ -6816,8 +6964,12 @@
       <c r="D30" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+      <c r="E30" s="19"/>
+      <c r="F30" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>667</v>
       </c>
@@ -6830,8 +6982,12 @@
       <c r="D31" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1">
+      <c r="E31" s="19"/>
+      <c r="F31" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>48</v>
       </c>
@@ -6844,8 +7000,12 @@
       <c r="D32" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E32" s="19"/>
+      <c r="F32" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>714</v>
       </c>
@@ -6858,8 +7018,12 @@
       <c r="D33" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+      <c r="E33" s="19"/>
+      <c r="F33" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>39</v>
       </c>
@@ -6872,8 +7036,12 @@
       <c r="D34" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+      <c r="E34" s="19"/>
+      <c r="F34" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>697</v>
       </c>
@@ -6886,8 +7054,12 @@
       <c r="D35" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+      <c r="E35" s="19"/>
+      <c r="F35" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>167</v>
       </c>
@@ -6900,8 +7072,12 @@
       <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1">
+      <c r="E36" s="19"/>
+      <c r="F36" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>287</v>
       </c>
@@ -6914,8 +7090,12 @@
       <c r="D37" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E37" s="19"/>
+      <c r="F37" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1040</v>
       </c>
@@ -6928,8 +7108,12 @@
       <c r="D38" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
+      <c r="E38" s="19"/>
+      <c r="F38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>62</v>
       </c>
@@ -6942,8 +7126,12 @@
       <c r="D39" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="18" thickBot="1">
+      <c r="E39" s="19"/>
+      <c r="F39" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>59</v>
       </c>
@@ -6956,8 +7144,12 @@
       <c r="D40" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E40" s="19"/>
+      <c r="F40" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1007</v>
       </c>
@@ -6970,8 +7162,12 @@
       <c r="D41" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1">
+      <c r="E41" s="19"/>
+      <c r="F41" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>289</v>
       </c>
@@ -6984,8 +7180,12 @@
       <c r="D42" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="18" thickBot="1">
+      <c r="E42" s="19"/>
+      <c r="F42" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>64</v>
       </c>
@@ -6998,8 +7198,12 @@
       <c r="D43" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1">
+      <c r="E43" s="19"/>
+      <c r="F43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>661</v>
       </c>
@@ -7012,8 +7216,12 @@
       <c r="D44" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="18" thickBot="1">
+      <c r="E44" s="19"/>
+      <c r="F44" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>268</v>
       </c>
@@ -7026,8 +7234,12 @@
       <c r="D45" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="18" thickBot="1">
+      <c r="E45" s="19"/>
+      <c r="F45" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>118</v>
       </c>
@@ -7040,8 +7252,12 @@
       <c r="D46" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="18" thickBot="1">
+      <c r="E46" s="19"/>
+      <c r="F46" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>121</v>
       </c>
@@ -7054,8 +7270,12 @@
       <c r="D47" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="18" thickBot="1">
+      <c r="E47" s="19"/>
+      <c r="F47" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>717</v>
       </c>
@@ -7068,8 +7288,12 @@
       <c r="D48" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="18" thickBot="1">
+      <c r="E48" s="19"/>
+      <c r="F48" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>746</v>
       </c>
@@ -7082,8 +7306,12 @@
       <c r="D49" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="18" thickBot="1">
+      <c r="E49" s="19"/>
+      <c r="F49" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>11</v>
       </c>
@@ -7096,8 +7324,12 @@
       <c r="D50" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E50" s="19"/>
+      <c r="F50" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>718</v>
       </c>
@@ -7110,8 +7342,12 @@
       <c r="D51" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="18" thickBot="1">
+      <c r="E51" s="19"/>
+      <c r="F51" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>974</v>
       </c>
@@ -7124,8 +7360,12 @@
       <c r="D52" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="18" thickBot="1">
+      <c r="E52" s="19"/>
+      <c r="F52" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>621</v>
       </c>
@@ -7138,8 +7378,12 @@
       <c r="D53" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1">
+      <c r="E53" s="19"/>
+      <c r="F53" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>611</v>
       </c>
@@ -7152,8 +7396,12 @@
       <c r="D54" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E54" s="19"/>
+      <c r="F54" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>628</v>
       </c>
@@ -7166,8 +7414,12 @@
       <c r="D55" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="18" thickBot="1">
+      <c r="E55" s="19"/>
+      <c r="F55" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>27</v>
       </c>
@@ -7180,8 +7432,12 @@
       <c r="D56" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="18" thickBot="1">
+      <c r="E56" s="19"/>
+      <c r="F56" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>119</v>
       </c>
@@ -7194,8 +7450,12 @@
       <c r="D57" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="18" thickBot="1">
+      <c r="E57" s="19"/>
+      <c r="F57" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -7208,8 +7468,12 @@
       <c r="D58" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="18" thickBot="1">
+      <c r="E58" s="19"/>
+      <c r="F58" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>16</v>
       </c>
@@ -7222,8 +7486,12 @@
       <c r="D59" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="18" thickBot="1">
+      <c r="E59" s="19"/>
+      <c r="F59" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>53</v>
       </c>
@@ -7236,8 +7504,12 @@
       <c r="D60" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E60" s="19"/>
+      <c r="F60" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>105</v>
       </c>
@@ -7250,8 +7522,12 @@
       <c r="D61" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="18" thickBot="1">
+      <c r="E61" s="19"/>
+      <c r="F61" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -7264,8 +7540,12 @@
       <c r="D62" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="18" thickBot="1">
+      <c r="E62" s="19"/>
+      <c r="F62" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>380</v>
       </c>
@@ -7278,8 +7558,12 @@
       <c r="D63" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="18" thickBot="1">
+      <c r="E63" s="19"/>
+      <c r="F63" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>90</v>
       </c>
@@ -7292,8 +7576,12 @@
       <c r="D64" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="18" thickBot="1">
+      <c r="E64" s="19"/>
+      <c r="F64" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>75</v>
       </c>
@@ -7306,8 +7594,12 @@
       <c r="D65" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E65" s="19"/>
+      <c r="F65" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>153</v>
       </c>
@@ -7320,8 +7612,12 @@
       <c r="D66" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="18" thickBot="1">
+      <c r="E66" s="19"/>
+      <c r="F66" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>128</v>
       </c>
@@ -7334,8 +7630,12 @@
       <c r="D67" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="18" thickBot="1">
+      <c r="E67" s="19"/>
+      <c r="F67" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>560</v>
       </c>
@@ -7348,8 +7648,12 @@
       <c r="D68" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E68" s="19"/>
+      <c r="F68" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>26</v>
       </c>
@@ -7362,8 +7666,12 @@
       <c r="D69" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E69" s="19"/>
+      <c r="F69" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>106</v>
       </c>
@@ -7376,8 +7684,12 @@
       <c r="D70" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="18" thickBot="1">
+      <c r="E70" s="19"/>
+      <c r="F70" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>162</v>
       </c>
@@ -7390,8 +7702,12 @@
       <c r="D71" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E71" s="19"/>
+      <c r="F71" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>80</v>
       </c>
@@ -7404,8 +7720,12 @@
       <c r="D72" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="18" thickBot="1">
+      <c r="E72" s="19"/>
+      <c r="F72" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>120</v>
       </c>
@@ -7418,8 +7738,12 @@
       <c r="D73" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="18" thickBot="1">
+      <c r="E73" s="19"/>
+      <c r="F73" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>66</v>
       </c>
@@ -7432,8 +7756,12 @@
       <c r="D74" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="18" thickBot="1">
+      <c r="E74" s="19"/>
+      <c r="F74" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -7446,8 +7774,12 @@
       <c r="D75" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="18" thickBot="1">
+      <c r="E75" s="19"/>
+      <c r="F75" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>35</v>
       </c>
@@ -7460,8 +7792,12 @@
       <c r="D76" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E76" s="19"/>
+      <c r="F76" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>154</v>
       </c>
@@ -7474,8 +7810,12 @@
       <c r="D77" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="18" thickBot="1">
+      <c r="E77" s="19"/>
+      <c r="F77" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>277</v>
       </c>
@@ -7488,8 +7828,12 @@
       <c r="D78" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="18" thickBot="1">
+      <c r="E78" s="19"/>
+      <c r="F78" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>713</v>
       </c>
@@ -7502,8 +7846,12 @@
       <c r="D79" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="18" thickBot="1">
+      <c r="E79" s="19"/>
+      <c r="F79" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>88</v>
       </c>
@@ -7516,8 +7864,12 @@
       <c r="D80" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="18" thickBot="1">
+      <c r="E80" s="19"/>
+      <c r="F80" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>228</v>
       </c>
@@ -7530,8 +7882,12 @@
       <c r="D81" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="18" thickBot="1">
+      <c r="E81" s="19"/>
+      <c r="F81" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>56</v>
       </c>
@@ -7544,8 +7900,12 @@
       <c r="D82" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="18" thickBot="1">
+      <c r="E82" s="19"/>
+      <c r="F82" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>219</v>
       </c>
@@ -7558,8 +7918,12 @@
       <c r="D83" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="18" thickBot="1">
+      <c r="E83" s="19"/>
+      <c r="F83" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>209</v>
       </c>
@@ -7572,8 +7936,12 @@
       <c r="D84" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="18" thickBot="1">
+      <c r="E84" s="19"/>
+      <c r="F84" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>123</v>
       </c>
@@ -7586,8 +7954,12 @@
       <c r="D85" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="18" thickBot="1">
+      <c r="E85" s="19"/>
+      <c r="F85" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>74</v>
       </c>
@@ -7600,8 +7972,12 @@
       <c r="D86" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="18" thickBot="1">
+      <c r="E86" s="19"/>
+      <c r="F86" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -7614,8 +7990,12 @@
       <c r="D87" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="35.1" thickBot="1">
+      <c r="E87" s="19"/>
+      <c r="F87" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>34</v>
       </c>
@@ -7628,8 +8008,12 @@
       <c r="D88" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="18" thickBot="1">
+      <c r="E88" s="19"/>
+      <c r="F88" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>229</v>
       </c>
@@ -7642,8 +8026,12 @@
       <c r="D89" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="18" thickBot="1">
+      <c r="E89" s="19"/>
+      <c r="F89" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>33</v>
       </c>
@@ -7656,8 +8044,12 @@
       <c r="D90" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="18" thickBot="1">
+      <c r="E90" s="19"/>
+      <c r="F90" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>79</v>
       </c>
@@ -7670,8 +8062,12 @@
       <c r="D91" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="18" thickBot="1">
+      <c r="E91" s="19"/>
+      <c r="F91" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>84</v>
       </c>
@@ -7684,8 +8080,12 @@
       <c r="D92" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="18" thickBot="1">
+      <c r="E92" s="19"/>
+      <c r="F92" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>55</v>
       </c>
@@ -7698,8 +8098,12 @@
       <c r="D93" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="18" thickBot="1">
+      <c r="E93" s="19"/>
+      <c r="F93" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>81</v>
       </c>
@@ -7712,8 +8116,12 @@
       <c r="D94" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="18" thickBot="1">
+      <c r="E94" s="19"/>
+      <c r="F94" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>189</v>
       </c>
@@ -7726,8 +8134,12 @@
       <c r="D95" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="18" thickBot="1">
+      <c r="E95" s="19"/>
+      <c r="F95" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>54</v>
       </c>
@@ -7740,8 +8152,12 @@
       <c r="D96" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="18" thickBot="1">
+      <c r="E96" s="19"/>
+      <c r="F96" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>57</v>
       </c>
@@ -7754,8 +8170,12 @@
       <c r="D97" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="18" thickBot="1">
+      <c r="E97" s="19"/>
+      <c r="F97" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>18</v>
       </c>
@@ -7768,8 +8188,12 @@
       <c r="D98" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="18" thickBot="1">
+      <c r="E98" s="19"/>
+      <c r="F98" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>31</v>
       </c>
@@ -7782,8 +8206,12 @@
       <c r="D99" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="18" thickBot="1">
+      <c r="E99" s="19"/>
+      <c r="F99" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>41</v>
       </c>
@@ -7796,8 +8224,12 @@
       <c r="D100" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="18" thickBot="1">
+      <c r="E100" s="19"/>
+      <c r="F100" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>152</v>
       </c>
@@ -7810,8 +8242,12 @@
       <c r="D101" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="18" thickBot="1">
+      <c r="E101" s="19"/>
+      <c r="F101" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>907</v>
       </c>
@@ -7824,8 +8260,12 @@
       <c r="D102" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="18" thickBot="1">
+      <c r="E102" s="19"/>
+      <c r="F102" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>45</v>
       </c>
@@ -7838,8 +8278,12 @@
       <c r="D103" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="18" thickBot="1">
+      <c r="E103" s="19"/>
+      <c r="F103" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>457</v>
       </c>
@@ -7852,8 +8296,12 @@
       <c r="D104" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="18" thickBot="1">
+      <c r="E104" s="19"/>
+      <c r="F104" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>4</v>
       </c>
@@ -7866,8 +8314,12 @@
       <c r="D105" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="18" thickBot="1">
+      <c r="E105" s="19"/>
+      <c r="F105" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>15</v>
       </c>
@@ -7880,8 +8332,12 @@
       <c r="D106" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="18" thickBot="1">
+      <c r="E106" s="19"/>
+      <c r="F106" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>126</v>
       </c>
@@ -7894,8 +8350,12 @@
       <c r="D107" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="18" thickBot="1">
+      <c r="E107" s="19"/>
+      <c r="F107" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>665</v>
       </c>
@@ -7908,6 +8368,13 @@
       <c r="D108" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="E108" s="19"/>
+      <c r="F108" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="19"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E108">
@@ -8033,7 +8500,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -8042,7 +8509,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -8059,7 +8526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1108</v>
       </c>
@@ -8073,7 +8540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1221</v>
       </c>
@@ -8087,7 +8554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>709</v>
       </c>
@@ -8101,7 +8568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>804</v>
       </c>
@@ -8115,7 +8582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>657</v>
       </c>
@@ -8129,7 +8596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>890</v>
       </c>
@@ -8143,7 +8610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>929</v>
       </c>
@@ -8157,7 +8624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>557</v>
       </c>
@@ -8171,7 +8638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>344</v>
       </c>
@@ -8185,7 +8652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="35.1" thickBot="1">
+    <row r="12" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>893</v>
       </c>
@@ -8199,7 +8666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1096</v>
       </c>
@@ -8213,7 +8680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>22</v>
       </c>
@@ -8227,7 +8694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>647</v>
       </c>
@@ -8241,7 +8708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>856</v>
       </c>
@@ -8255,7 +8722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>609</v>
       </c>
@@ -8269,7 +8736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="35.1" thickBot="1">
+    <row r="18" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>521</v>
       </c>
@@ -8283,7 +8750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>635</v>
       </c>
@@ -8297,7 +8764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>788</v>
       </c>
@@ -8311,7 +8778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>553</v>
       </c>
@@ -8325,7 +8792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>696</v>
       </c>
@@ -8339,7 +8806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>13</v>
       </c>
@@ -8353,7 +8820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>937</v>
       </c>
@@ -8367,7 +8834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>761</v>
       </c>
@@ -8381,7 +8848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>12</v>
       </c>
@@ -8395,7 +8862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>606</v>
       </c>
@@ -8409,7 +8876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>49</v>
       </c>
@@ -8423,7 +8890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>383</v>
       </c>
@@ -8437,7 +8904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>387</v>
       </c>
@@ -8451,7 +8918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>539</v>
       </c>
@@ -8465,7 +8932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="35.1" thickBot="1">
+    <row r="32" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>632</v>
       </c>
@@ -8479,7 +8946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="35.1" thickBot="1">
+    <row r="33" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>159</v>
       </c>
@@ -8493,7 +8960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>541</v>
       </c>
@@ -8507,7 +8974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>770</v>
       </c>
@@ -8521,7 +8988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>736</v>
       </c>
@@ -8535,7 +9002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1">
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>767</v>
       </c>
@@ -8549,7 +9016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>415</v>
       </c>
@@ -8563,7 +9030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="35.1" thickBot="1">
+    <row r="39" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>17</v>
       </c>
@@ -8577,7 +9044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" thickBot="1">
+    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>681</v>
       </c>
@@ -8591,7 +9058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>819</v>
       </c>
@@ -8605,7 +9072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1">
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>345</v>
       </c>
@@ -8619,7 +9086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" thickBot="1">
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>38</v>
       </c>
@@ -8633,7 +9100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="35.1" thickBot="1">
+    <row r="44" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>340</v>
       </c>
@@ -8647,7 +9114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" thickBot="1">
+    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>67</v>
       </c>
@@ -8661,7 +9128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18" thickBot="1">
+    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>459</v>
       </c>
@@ -8675,7 +9142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" thickBot="1">
+    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>72</v>
       </c>
@@ -8689,7 +9156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="35.1" thickBot="1">
+    <row r="48" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>730</v>
       </c>
@@ -8703,7 +9170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" thickBot="1">
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>772</v>
       </c>
@@ -8717,7 +9184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" thickBot="1">
+    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>443</v>
       </c>
@@ -8731,7 +9198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" thickBot="1">
+    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>20</v>
       </c>
@@ -8745,7 +9212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18" thickBot="1">
+    <row r="52" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>115</v>
       </c>
@@ -8759,7 +9226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" thickBot="1">
+    <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>680</v>
       </c>
@@ -8773,7 +9240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1">
+    <row r="54" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>227</v>
       </c>
@@ -8787,7 +9254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" thickBot="1">
+    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>14</v>
       </c>
@@ -8801,7 +9268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" thickBot="1">
+    <row r="56" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>6</v>
       </c>
@@ -8815,7 +9282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" thickBot="1">
+    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>125</v>
       </c>
@@ -8829,7 +9296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18" thickBot="1">
+    <row r="58" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>28</v>
       </c>
@@ -8843,7 +9310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18" thickBot="1">
+    <row r="59" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>93</v>
       </c>
@@ -8857,7 +9324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" thickBot="1">
+    <row r="60" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>76</v>
       </c>
@@ -8871,7 +9338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18" thickBot="1">
+    <row r="61" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>722</v>
       </c>
@@ -8885,7 +9352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18" thickBot="1">
+    <row r="62" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>87</v>
       </c>
@@ -8899,7 +9366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" thickBot="1">
+    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>336</v>
       </c>
@@ -8913,7 +9380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18" thickBot="1">
+    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>43</v>
       </c>
@@ -8927,7 +9394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18" thickBot="1">
+    <row r="65" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>58</v>
       </c>
@@ -8941,7 +9408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="18" thickBot="1">
+    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>686</v>
       </c>
@@ -8955,7 +9422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18" thickBot="1">
+    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>71</v>
       </c>
@@ -8969,7 +9436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="35.1" thickBot="1">
+    <row r="68" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>158</v>
       </c>
@@ -8983,7 +9450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="18" thickBot="1">
+    <row r="69" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>97</v>
       </c>
@@ -8997,7 +9464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="35.1" thickBot="1">
+    <row r="70" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>3</v>
       </c>
@@ -9011,7 +9478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18" thickBot="1">
+    <row r="71" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>214</v>
       </c>
@@ -9025,7 +9492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18" thickBot="1">
+    <row r="72" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>5</v>
       </c>
@@ -9039,7 +9506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18" thickBot="1">
+    <row r="73" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>32</v>
       </c>
@@ -9053,7 +9520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18" thickBot="1">
+    <row r="74" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>10</v>
       </c>
@@ -9067,7 +9534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18" thickBot="1">
+    <row r="75" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>273</v>
       </c>
@@ -9081,7 +9548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18" thickBot="1">
+    <row r="76" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>68</v>
       </c>
@@ -9095,7 +9562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18" thickBot="1">
+    <row r="77" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>165</v>
       </c>
@@ -9109,7 +9576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="35.1" thickBot="1">
+    <row r="78" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>30</v>
       </c>
@@ -9123,7 +9590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18" thickBot="1">
+    <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>44</v>
       </c>
@@ -9137,7 +9604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18" thickBot="1">
+    <row r="80" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>91</v>
       </c>
@@ -9151,7 +9618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18" thickBot="1">
+    <row r="81" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>126</v>
       </c>
@@ -9165,7 +9632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18" thickBot="1">
+    <row r="82" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>564</v>
       </c>
@@ -9179,7 +9646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18" thickBot="1">
+    <row r="83" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>151</v>
       </c>
@@ -9193,7 +9660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="45.95" thickBot="1">
+    <row r="84" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>8</v>
       </c>
@@ -9207,7 +9674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18" thickBot="1">
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>65</v>
       </c>
@@ -9318,11 +9785,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A55:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -9331,7 +9798,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="55" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="55" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>1</v>
       </c>
@@ -9348,7 +9815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18" thickBot="1">
+    <row r="56" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>136</v>
       </c>
@@ -9362,7 +9829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18" hidden="1" thickBot="1">
+    <row r="57" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>78</v>
       </c>
@@ -9376,7 +9843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18" thickBot="1">
+    <row r="58" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>169</v>
       </c>
@@ -9390,7 +9857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="35.1" hidden="1" thickBot="1">
+    <row r="59" spans="1:5" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>421</v>
       </c>
@@ -9404,7 +9871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18" thickBot="1">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>268</v>
       </c>
@@ -9418,7 +9885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="35.1" hidden="1" thickBot="1">
+    <row r="61" spans="1:5" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>318</v>
       </c>
@@ -9432,7 +9899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18" hidden="1" thickBot="1">
+    <row r="62" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>137</v>
       </c>
@@ -9446,7 +9913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="51.95" hidden="1" thickBot="1">
+    <row r="63" spans="1:5" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>1239</v>
       </c>
@@ -9460,7 +9927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18" hidden="1" thickBot="1">
+    <row r="64" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>187</v>
       </c>
@@ -9474,7 +9941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18" hidden="1" thickBot="1">
+    <row r="65" spans="1:4" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>393</v>
       </c>
@@ -9523,7 +9990,7 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -9532,7 +9999,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -9549,7 +10016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>980</v>
       </c>
@@ -9563,7 +10030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>339</v>
       </c>
@@ -9577,7 +10044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>366</v>
       </c>
@@ -9591,7 +10058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>489</v>
       </c>
@@ -9605,7 +10072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="35.1" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1110</v>
       </c>
@@ -9619,7 +10086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>104</v>
       </c>
@@ -9633,7 +10100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>364</v>
       </c>
@@ -9647,7 +10114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>695</v>
       </c>
@@ -9661,7 +10128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>547</v>
       </c>
@@ -9675,7 +10142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>529</v>
       </c>
@@ -9689,7 +10156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="35.1" thickBot="1">
+    <row r="13" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>108</v>
       </c>
@@ -9703,7 +10170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>694</v>
       </c>
@@ -9717,7 +10184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>733</v>
       </c>
@@ -9731,7 +10198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="35.1" thickBot="1">
+    <row r="16" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>863</v>
       </c>
@@ -9745,7 +10212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>199</v>
       </c>
@@ -9759,7 +10226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>490</v>
       </c>
@@ -9773,7 +10240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>753</v>
       </c>
@@ -9787,7 +10254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="35.1" thickBot="1">
+    <row r="20" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>1192</v>
       </c>
@@ -9801,7 +10268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>257</v>
       </c>
@@ -9815,7 +10282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="35.1" thickBot="1">
+    <row r="22" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>430</v>
       </c>
@@ -9829,7 +10296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>394</v>
       </c>
@@ -9843,7 +10310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="35.1" thickBot="1">
+    <row r="24" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>114</v>
       </c>
@@ -9857,7 +10324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>785</v>
       </c>
@@ -9871,7 +10338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>101</v>
       </c>
@@ -9885,7 +10352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="35.1" thickBot="1">
+    <row r="27" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>105</v>
       </c>
@@ -9899,7 +10366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>721</v>
       </c>
@@ -9913,7 +10380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>679</v>
       </c>
@@ -9927,7 +10394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>200</v>
       </c>
@@ -9941,7 +10408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="35.1" thickBot="1">
+    <row r="31" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>109</v>
       </c>
@@ -9955,7 +10422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="35.1" thickBot="1">
+    <row r="32" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>329</v>
       </c>
@@ -9969,7 +10436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>301</v>
       </c>
@@ -9983,7 +10450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="35.1" thickBot="1">
+    <row r="34" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>116</v>
       </c>
@@ -9997,7 +10464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>207</v>
       </c>
@@ -10011,7 +10478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>472</v>
       </c>
@@ -10025,7 +10492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1">
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>417</v>
       </c>
@@ -10039,7 +10506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>210</v>
       </c>
@@ -10053,7 +10520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>99</v>
       </c>
@@ -10067,7 +10534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="35.1" thickBot="1">
+    <row r="40" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>117</v>
       </c>
@@ -10081,7 +10548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>332</v>
       </c>
@@ -10095,7 +10562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="35.1" thickBot="1">
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>124</v>
       </c>
@@ -10109,7 +10576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" thickBot="1">
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>133</v>
       </c>
@@ -10123,7 +10590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1">
+    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>98</v>
       </c>
@@ -10197,7 +10664,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -10206,12 +10673,12 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -10228,7 +10695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>338</v>
       </c>
@@ -10242,7 +10709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1025</v>
       </c>
@@ -10256,7 +10723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="35.1" thickBot="1">
+    <row r="5" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1130</v>
       </c>
@@ -10270,7 +10737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>877</v>
       </c>
@@ -10284,7 +10751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="35.1" thickBot="1">
+    <row r="7" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1074</v>
       </c>
@@ -10298,7 +10765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>931</v>
       </c>
@@ -10312,7 +10779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1140</v>
       </c>
@@ -10326,7 +10793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="35.1" thickBot="1">
+    <row r="10" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1227</v>
       </c>
@@ -10340,7 +10807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>647</v>
       </c>
@@ -10354,7 +10821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>983</v>
       </c>
@@ -10368,7 +10835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>413</v>
       </c>
@@ -10382,7 +10849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="35.1" thickBot="1">
+    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>712</v>
       </c>
@@ -10396,7 +10863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1027</v>
       </c>
@@ -10410,7 +10877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="35.1" thickBot="1">
+    <row r="16" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>714</v>
       </c>
@@ -10424,7 +10891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1048</v>
       </c>
@@ -10438,7 +10905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>256</v>
       </c>
@@ -10452,7 +10919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>62</v>
       </c>
@@ -10466,7 +10933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>64</v>
       </c>
@@ -10480,7 +10947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>646</v>
       </c>
@@ -10494,7 +10961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>638</v>
       </c>
@@ -10508,7 +10975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>516</v>
       </c>
@@ -10522,7 +10989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>847</v>
       </c>
@@ -10536,7 +11003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>312</v>
       </c>
@@ -10550,7 +11017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="35.1" thickBot="1">
+    <row r="26" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>1240</v>
       </c>
@@ -10564,7 +11031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>96</v>
       </c>
@@ -10578,7 +11045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>121</v>
       </c>
@@ -10592,7 +11059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>343</v>
       </c>
@@ -10606,7 +11073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>746</v>
       </c>
@@ -10620,7 +11087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="35.1" thickBot="1">
+    <row r="31" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>718</v>
       </c>
@@ -10634,7 +11101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>813</v>
       </c>
@@ -10648,7 +11115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>650</v>
       </c>
@@ -10662,7 +11129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>392</v>
       </c>
@@ -10676,7 +11143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="35.1" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>357</v>
       </c>
@@ -10690,7 +11157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>740</v>
       </c>
@@ -10704,7 +11171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="35.1" thickBot="1">
+    <row r="37" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>903</v>
       </c>
@@ -10718,7 +11185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>486</v>
       </c>
@@ -10732,7 +11199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>688</v>
       </c>
@@ -10746,7 +11213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" thickBot="1">
+    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>494</v>
       </c>
@@ -10760,7 +11227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>70</v>
       </c>
@@ -10774,7 +11241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1">
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>53</v>
       </c>
@@ -10788,7 +11255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="35.1" thickBot="1">
+    <row r="43" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>309</v>
       </c>
@@ -10802,7 +11269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1">
+    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>920</v>
       </c>
@@ -10816,7 +11283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" thickBot="1">
+    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>361</v>
       </c>
@@ -10830,7 +11297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="35.1" thickBot="1">
+    <row r="46" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>689</v>
       </c>
@@ -10844,7 +11311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" thickBot="1">
+    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>698</v>
       </c>
@@ -10858,7 +11325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18" thickBot="1">
+    <row r="48" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>377</v>
       </c>
@@ -10872,7 +11339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" thickBot="1">
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>279</v>
       </c>
@@ -10886,7 +11353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" thickBot="1">
+    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>975</v>
       </c>
@@ -10900,7 +11367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" thickBot="1">
+    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>410</v>
       </c>
@@ -10914,7 +11381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="35.1" thickBot="1">
+    <row r="52" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>964</v>
       </c>
@@ -10928,7 +11395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" thickBot="1">
+    <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>935</v>
       </c>
@@ -10942,7 +11409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1">
+    <row r="54" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>1049</v>
       </c>
@@ -10956,7 +11423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" thickBot="1">
+    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>416</v>
       </c>
@@ -10970,7 +11437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" thickBot="1">
+    <row r="56" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>120</v>
       </c>
@@ -10984,7 +11451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" thickBot="1">
+    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>300</v>
       </c>
@@ -10998,7 +11465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18" thickBot="1">
+    <row r="58" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>198</v>
       </c>
@@ -11012,7 +11479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18" thickBot="1">
+    <row r="59" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>943</v>
       </c>
@@ -11026,7 +11493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" thickBot="1">
+    <row r="60" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>303</v>
       </c>
@@ -11040,7 +11507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18" thickBot="1">
+    <row r="61" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>474</v>
       </c>
@@ -11054,7 +11521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18" thickBot="1">
+    <row r="62" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>72</v>
       </c>
@@ -11068,7 +11535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="35.1" thickBot="1">
+    <row r="63" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>730</v>
       </c>
@@ -11082,7 +11549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18" thickBot="1">
+    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>546</v>
       </c>
@@ -11096,7 +11563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18" thickBot="1">
+    <row r="65" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>375</v>
       </c>
@@ -11110,7 +11577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="18" thickBot="1">
+    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>664</v>
       </c>
@@ -11124,7 +11591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18" thickBot="1">
+    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>376</v>
       </c>
@@ -11138,7 +11605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18" thickBot="1">
+    <row r="68" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>956</v>
       </c>
@@ -11152,7 +11619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="18" thickBot="1">
+    <row r="69" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>264</v>
       </c>
@@ -11166,7 +11633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="18" thickBot="1">
+    <row r="70" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>1000</v>
       </c>
@@ -11180,7 +11647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18" thickBot="1">
+    <row r="71" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>95</v>
       </c>
@@ -11194,7 +11661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18" thickBot="1">
+    <row r="72" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>403</v>
       </c>
@@ -11208,7 +11675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18" thickBot="1">
+    <row r="73" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>139</v>
       </c>
@@ -11222,7 +11689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18" thickBot="1">
+    <row r="74" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>276</v>
       </c>
@@ -11236,7 +11703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18" thickBot="1">
+    <row r="75" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>115</v>
       </c>
@@ -11250,7 +11717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="35.1" thickBot="1">
+    <row r="76" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>363</v>
       </c>
@@ -11264,7 +11731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18" thickBot="1">
+    <row r="77" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>368</v>
       </c>
@@ -11278,7 +11745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18" thickBot="1">
+    <row r="78" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>213</v>
       </c>
@@ -11292,7 +11759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18" thickBot="1">
+    <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>123</v>
       </c>
@@ -11306,7 +11773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="35.1" thickBot="1">
+    <row r="80" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>304</v>
       </c>
@@ -11320,7 +11787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18" thickBot="1">
+    <row r="81" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>85</v>
       </c>
@@ -11334,7 +11801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18" thickBot="1">
+    <row r="82" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>221</v>
       </c>
@@ -11348,7 +11815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18" thickBot="1">
+    <row r="83" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>354</v>
       </c>
@@ -11362,7 +11829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="35.1" thickBot="1">
+    <row r="84" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>673</v>
       </c>
@@ -11376,7 +11843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18" thickBot="1">
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>63</v>
       </c>
@@ -11390,7 +11857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18" thickBot="1">
+    <row r="86" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>322</v>
       </c>
@@ -11404,7 +11871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18" thickBot="1">
+    <row r="87" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>741</v>
       </c>
@@ -11418,7 +11885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18" thickBot="1">
+    <row r="88" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -11432,7 +11899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18" thickBot="1">
+    <row r="89" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>152</v>
       </c>
@@ -11446,7 +11913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18" thickBot="1">
+    <row r="90" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>97</v>
       </c>
@@ -11460,7 +11927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18" thickBot="1">
+    <row r="91" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>140</v>
       </c>
@@ -11474,7 +11941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18" thickBot="1">
+    <row r="92" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>132</v>
       </c>
@@ -11488,7 +11955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18" thickBot="1">
+    <row r="93" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>174</v>
       </c>
@@ -11502,7 +11969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18" thickBot="1">
+    <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -11516,7 +11983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18" thickBot="1">
+    <row r="95" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>464</v>
       </c>
@@ -11530,7 +11997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18" thickBot="1">
+    <row r="96" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>466</v>
       </c>
@@ -11544,7 +12011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="35.1" thickBot="1">
+    <row r="97" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>188</v>
       </c>
@@ -11558,7 +12025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="18" thickBot="1">
+    <row r="98" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>32</v>
       </c>
@@ -11572,7 +12039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="18" thickBot="1">
+    <row r="99" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>321</v>
       </c>
@@ -11586,7 +12053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18" thickBot="1">
+    <row r="100" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>10</v>
       </c>
@@ -11600,7 +12067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="18" thickBot="1">
+    <row r="101" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>887</v>
       </c>
@@ -11614,7 +12081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="18" thickBot="1">
+    <row r="102" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>44</v>
       </c>
@@ -11628,7 +12095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="18" thickBot="1">
+    <row r="103" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>91</v>
       </c>
@@ -11642,7 +12109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="51.95" thickBot="1">
+    <row r="104" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>1105</v>
       </c>
@@ -11772,7 +12239,7 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -11781,7 +12248,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -11798,7 +12265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1236</v>
       </c>
@@ -11812,7 +12279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="35.1" thickBot="1">
+    <row r="4" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>429</v>
       </c>
@@ -11826,7 +12293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>529</v>
       </c>
@@ -11840,7 +12307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>773</v>
       </c>
@@ -11854,7 +12321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51.95" thickBot="1">
+    <row r="7" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>323</v>
       </c>
@@ -11868,7 +12335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="35.1" thickBot="1">
+    <row r="8" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>863</v>
       </c>
@@ -11882,7 +12349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>286</v>
       </c>
@@ -11896,7 +12363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="35.1" thickBot="1">
+    <row r="10" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>102</v>
       </c>
@@ -11910,7 +12377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>199</v>
       </c>
@@ -11924,7 +12391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="35.1" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>847</v>
       </c>
@@ -11938,7 +12405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>490</v>
       </c>
@@ -11952,7 +12419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="35.1" thickBot="1">
+    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>107</v>
       </c>
@@ -11966,7 +12433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>752</v>
       </c>
@@ -11980,7 +12447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>994</v>
       </c>
@@ -11994,7 +12461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>505</v>
       </c>
@@ -12008,7 +12475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>934</v>
       </c>
@@ -12022,7 +12489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>785</v>
       </c>
@@ -12036,7 +12503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>101</v>
       </c>
@@ -12050,7 +12517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="35.1" thickBot="1">
+    <row r="21" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>103</v>
       </c>
@@ -12064,7 +12531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>200</v>
       </c>
@@ -12078,7 +12545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>279</v>
       </c>
@@ -12092,7 +12559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1242</v>
       </c>
@@ -12106,7 +12573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>815</v>
       </c>
@@ -12120,7 +12587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>301</v>
       </c>
@@ -12134,7 +12601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>261</v>
       </c>
@@ -12148,7 +12615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>207</v>
       </c>
@@ -12162,7 +12629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>407</v>
       </c>
@@ -12176,7 +12643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="35.1" thickBot="1">
+    <row r="30" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>317</v>
       </c>
@@ -12190,7 +12657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>417</v>
       </c>
@@ -12204,7 +12671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>864</v>
       </c>
@@ -12218,7 +12685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>542</v>
       </c>
@@ -12232,7 +12699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>210</v>
       </c>
@@ -12246,7 +12713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1091</v>
       </c>
@@ -12260,7 +12727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="35.1" thickBot="1">
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>787</v>
       </c>
@@ -12274,7 +12741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1">
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>909</v>
       </c>
@@ -12288,7 +12755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1197</v>
       </c>
@@ -12302,7 +12769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>310</v>
       </c>
@@ -12316,7 +12783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" thickBot="1">
+    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>133</v>
       </c>
@@ -12330,7 +12797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>913</v>
       </c>
@@ -12344,7 +12811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1">
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>127</v>
       </c>
@@ -12358,7 +12825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" thickBot="1">
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>130</v>
       </c>
@@ -12372,7 +12839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1">
+    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>126</v>
       </c>
@@ -12446,7 +12913,7 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -12455,7 +12922,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -12472,7 +12939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>535</v>
       </c>
@@ -12486,7 +12953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>877</v>
       </c>
@@ -12500,7 +12967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>296</v>
       </c>
@@ -12514,7 +12981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>13</v>
       </c>
@@ -12528,7 +12995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>12</v>
       </c>
@@ -12542,7 +13009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>171</v>
       </c>
@@ -12556,7 +13023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>268</v>
       </c>
@@ -12570,7 +13037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>753</v>
       </c>
@@ -12584,7 +13051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>836</v>
       </c>
@@ -12598,7 +13065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>202</v>
       </c>
@@ -12612,7 +13079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1041</v>
       </c>
@@ -12626,7 +13093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="35.1" thickBot="1">
+    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>628</v>
       </c>
@@ -12640,7 +13107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>9</v>
       </c>
@@ -12654,7 +13121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>247</v>
       </c>
@@ -12668,7 +13135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>319</v>
       </c>
@@ -12682,7 +13149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>279</v>
       </c>
@@ -12696,7 +13163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>991</v>
       </c>
@@ -12710,7 +13177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>67</v>
       </c>
@@ -12724,7 +13191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>593</v>
       </c>
@@ -12738,7 +13205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1088</v>
       </c>
@@ -12752,7 +13219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>264</v>
       </c>
@@ -12766,7 +13233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>223</v>
       </c>
@@ -12780,7 +13247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>829</v>
       </c>
@@ -12794,7 +13261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>368</v>
       </c>
@@ -12808,7 +13275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>224</v>
       </c>
@@ -12822,7 +13289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>69</v>
       </c>
@@ -12836,7 +13303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -12850,7 +13317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43</v>
       </c>
@@ -12864,7 +13331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>794</v>
       </c>
@@ -12878,7 +13345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>233</v>
       </c>
@@ -12892,7 +13359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>204</v>
       </c>
@@ -12906,7 +13373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>168</v>
       </c>
@@ -12920,7 +13387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>365</v>
       </c>
@@ -12934,7 +13401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>50</v>
       </c>
@@ -12948,7 +13415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1">
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>780</v>
       </c>
@@ -12962,7 +13429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>887</v>
       </c>
@@ -12976,7 +13443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>273</v>
       </c>
@@ -12990,7 +13457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" thickBot="1">
+    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>7</v>
       </c>
@@ -13004,7 +13471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>523</v>
       </c>
@@ -13018,7 +13485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1">
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>866</v>
       </c>
@@ -13032,7 +13499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" thickBot="1">
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>166</v>
       </c>
@@ -13046,7 +13513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1">
+    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>149</v>
       </c>
@@ -13060,7 +13527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" thickBot="1">
+    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -13074,7 +13541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45.95" thickBot="1">
+    <row r="46" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>8</v>
       </c>
@@ -13088,7 +13555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" thickBot="1">
+    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>65</v>
       </c>
@@ -13164,7 +13631,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -13173,12 +13640,12 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -13195,7 +13662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>973</v>
       </c>
@@ -13209,7 +13676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="35.1" thickBot="1">
+    <row r="4" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>426</v>
       </c>
@@ -13223,7 +13690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>932</v>
       </c>
@@ -13237,7 +13704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="35.1" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>169</v>
       </c>
@@ -13251,7 +13718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="35.1" thickBot="1">
+    <row r="7" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>241</v>
       </c>
@@ -13265,7 +13732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>215</v>
       </c>
@@ -13279,7 +13746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>312</v>
       </c>
@@ -13293,7 +13760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="35.1" thickBot="1">
+    <row r="10" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>903</v>
       </c>
@@ -13307,7 +13774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>53</v>
       </c>
@@ -13321,7 +13788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>240</v>
       </c>
@@ -13335,7 +13802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="35.1" thickBot="1">
+    <row r="13" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>315</v>
       </c>
@@ -13349,7 +13816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>23</v>
       </c>
@@ -13363,7 +13830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>282</v>
       </c>
@@ -13377,7 +13844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>327</v>
       </c>
@@ -13391,7 +13858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>218</v>
       </c>
@@ -13405,7 +13872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -13419,7 +13886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>493</v>
       </c>
@@ -13468,7 +13935,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -13477,7 +13944,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -13494,7 +13961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>938</v>
       </c>
@@ -13508,7 +13975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>701</v>
       </c>
@@ -13522,7 +13989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>654</v>
       </c>
@@ -13536,7 +14003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="35.1" thickBot="1">
+    <row r="6" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1008</v>
       </c>
@@ -13550,7 +14017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>814</v>
       </c>
@@ -13564,7 +14031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>894</v>
       </c>
@@ -13578,7 +14045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>617</v>
       </c>
@@ -13592,7 +14059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="35.1" thickBot="1">
+    <row r="10" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1104</v>
       </c>
@@ -13606,7 +14073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>700</v>
       </c>
@@ -13620,7 +14087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>589</v>
       </c>
@@ -13634,7 +14101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>590</v>
       </c>
@@ -13648,7 +14115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="35.1" thickBot="1">
+    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1028</v>
       </c>
@@ -13662,7 +14129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>366</v>
       </c>
@@ -13676,7 +14143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>431</v>
       </c>
@@ -13690,7 +14157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>979</v>
       </c>
@@ -13704,7 +14171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>559</v>
       </c>
@@ -13718,7 +14185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>897</v>
       </c>
@@ -13732,7 +14199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>951</v>
       </c>
@@ -13746,7 +14213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1110</v>
       </c>
@@ -13760,7 +14227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>872</v>
       </c>
@@ -13774,7 +14241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="35.1" thickBot="1">
+    <row r="23" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>889</v>
       </c>
@@ -13788,7 +14255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="35.1" thickBot="1">
+    <row r="24" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1130</v>
       </c>
@@ -13802,7 +14269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>104</v>
       </c>
@@ -13816,7 +14283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>998</v>
       </c>
@@ -13830,7 +14297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>669</v>
       </c>
@@ -13844,7 +14311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>226</v>
       </c>
@@ -13858,7 +14325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>637</v>
       </c>
@@ -13872,7 +14339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>94</v>
       </c>
@@ -13886,7 +14353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>513</v>
       </c>
@@ -13900,7 +14367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="35.1" thickBot="1">
+    <row r="32" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>515</v>
       </c>
@@ -13914,7 +14381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="35.1" thickBot="1">
+    <row r="33" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>865</v>
       </c>
@@ -13928,7 +14395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>582</v>
       </c>
@@ -13942,7 +14409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="35.1" thickBot="1">
+    <row r="35" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>428</v>
       </c>
@@ -13956,7 +14423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>508</v>
       </c>
@@ -13970,7 +14437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="35.1" thickBot="1">
+    <row r="37" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>426</v>
       </c>
@@ -13984,7 +14451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>230</v>
       </c>
@@ -13998,7 +14465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>684</v>
       </c>
@@ -14012,7 +14479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="35.1" thickBot="1">
+    <row r="40" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>108</v>
       </c>
@@ -14026,7 +14493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>653</v>
       </c>
@@ -14040,7 +14507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1">
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>144</v>
       </c>
@@ -14054,7 +14521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" thickBot="1">
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>156</v>
       </c>
@@ -14068,7 +14535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1">
+    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>538</v>
       </c>
@@ -14082,7 +14549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" thickBot="1">
+    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>655</v>
       </c>
@@ -14096,7 +14563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18" thickBot="1">
+    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>606</v>
       </c>
@@ -14110,7 +14577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" thickBot="1">
+    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>173</v>
       </c>
@@ -14124,7 +14591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="35.1" thickBot="1">
+    <row r="48" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>863</v>
       </c>
@@ -14138,7 +14605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="35.1" thickBot="1">
+    <row r="49" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>530</v>
       </c>
@@ -14152,7 +14619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" thickBot="1">
+    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>145</v>
       </c>
@@ -14166,7 +14633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" thickBot="1">
+    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>102</v>
       </c>
@@ -14180,7 +14647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18" thickBot="1">
+    <row r="52" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>100</v>
       </c>
@@ -14194,7 +14661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="35.1" thickBot="1">
+    <row r="53" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>783</v>
       </c>
@@ -14208,7 +14675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1">
+    <row r="54" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>199</v>
       </c>
@@ -14222,7 +14689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" thickBot="1">
+    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>250</v>
       </c>
@@ -14236,7 +14703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" thickBot="1">
+    <row r="56" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>1145</v>
       </c>
@@ -14250,7 +14717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" thickBot="1">
+    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>449</v>
       </c>
@@ -14264,7 +14731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18" thickBot="1">
+    <row r="58" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>404</v>
       </c>
@@ -14278,7 +14745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="35.1" thickBot="1">
+    <row r="59" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>107</v>
       </c>
@@ -14292,7 +14759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" thickBot="1">
+    <row r="60" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>337</v>
       </c>
@@ -14306,7 +14773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18" thickBot="1">
+    <row r="61" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>96</v>
       </c>
@@ -14320,7 +14787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18" thickBot="1">
+    <row r="62" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>257</v>
       </c>
@@ -14334,7 +14801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" thickBot="1">
+    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>652</v>
       </c>
@@ -14348,7 +14815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="35.1" thickBot="1">
+    <row r="64" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>272</v>
       </c>
@@ -14362,7 +14829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18" thickBot="1">
+    <row r="65" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>543</v>
       </c>
@@ -14376,7 +14843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="35.1" thickBot="1">
+    <row r="66" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>235</v>
       </c>
@@ -14390,7 +14857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18" thickBot="1">
+    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>563</v>
       </c>
@@ -14404,7 +14871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18" thickBot="1">
+    <row r="68" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>114</v>
       </c>
@@ -14418,7 +14885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="35.1" thickBot="1">
+    <row r="69" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>298</v>
       </c>
@@ -14432,7 +14899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="18" thickBot="1">
+    <row r="70" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>270</v>
       </c>
@@ -14446,7 +14913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18" thickBot="1">
+    <row r="71" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>101</v>
       </c>
@@ -14460,7 +14927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="35.1" thickBot="1">
+    <row r="72" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>105</v>
       </c>
@@ -14474,7 +14941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18" thickBot="1">
+    <row r="73" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>129</v>
       </c>
@@ -14488,7 +14955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="35.1" thickBot="1">
+    <row r="74" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>255</v>
       </c>
@@ -14502,7 +14969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="35.1" thickBot="1">
+    <row r="75" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>103</v>
       </c>
@@ -14516,7 +14983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="35.1" thickBot="1">
+    <row r="76" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>297</v>
       </c>
@@ -14530,7 +14997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18" thickBot="1">
+    <row r="77" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>437</v>
       </c>
@@ -14544,7 +15011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="35.1" thickBot="1">
+    <row r="78" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>971</v>
       </c>
@@ -14558,7 +15025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18" thickBot="1">
+    <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>113</v>
       </c>
@@ -14572,7 +15039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18" thickBot="1">
+    <row r="80" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>572</v>
       </c>
@@ -14586,7 +15053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="35.1" thickBot="1">
+    <row r="81" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>671</v>
       </c>
@@ -14600,7 +15067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="35.1" thickBot="1">
+    <row r="82" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>106</v>
       </c>
@@ -14614,7 +15081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18" thickBot="1">
+    <row r="83" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>110</v>
       </c>
@@ -14628,7 +15095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18" thickBot="1">
+    <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>834</v>
       </c>
@@ -14642,7 +15109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="35.1" thickBot="1">
+    <row r="85" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>236</v>
       </c>
@@ -14656,7 +15123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18" thickBot="1">
+    <row r="86" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>450</v>
       </c>
@@ -14670,7 +15137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="35.1" thickBot="1">
+    <row r="87" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>116</v>
       </c>
@@ -14684,7 +15151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18" thickBot="1">
+    <row r="88" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>501</v>
       </c>
@@ -14698,7 +15165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18" thickBot="1">
+    <row r="89" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>222</v>
       </c>
@@ -14712,7 +15179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18" thickBot="1">
+    <row r="90" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>112</v>
       </c>
@@ -14726,7 +15193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18" thickBot="1">
+    <row r="91" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>662</v>
       </c>
@@ -14740,7 +15207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18" thickBot="1">
+    <row r="92" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>95</v>
       </c>
@@ -14754,7 +15221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18" thickBot="1">
+    <row r="93" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>285</v>
       </c>
@@ -14768,7 +15235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18" thickBot="1">
+    <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>545</v>
       </c>
@@ -14782,7 +15249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18" thickBot="1">
+    <row r="95" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>99</v>
       </c>
@@ -14796,7 +15263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="35.1" thickBot="1">
+    <row r="96" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>117</v>
       </c>
@@ -14810,7 +15277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="18" thickBot="1">
+    <row r="97" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>968</v>
       </c>
@@ -14824,7 +15291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="18" thickBot="1">
+    <row r="98" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>111</v>
       </c>
@@ -14838,7 +15305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="18" thickBot="1">
+    <row r="99" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>687</v>
       </c>
@@ -14852,7 +15319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="35.1" thickBot="1">
+    <row r="100" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>987</v>
       </c>
@@ -14866,7 +15333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="18" thickBot="1">
+    <row r="101" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>124</v>
       </c>
@@ -14880,7 +15347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="18" thickBot="1">
+    <row r="102" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>98</v>
       </c>
@@ -15012,7 +15479,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -15021,7 +15488,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -15038,7 +15505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="35.1" thickBot="1">
+    <row r="3" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1161</v>
       </c>
@@ -15052,7 +15519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>959</v>
       </c>
@@ -15066,7 +15533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1043</v>
       </c>
@@ -15080,7 +15547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>841</v>
       </c>
@@ -15094,7 +15561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="35.1" thickBot="1">
+    <row r="7" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1168</v>
       </c>
@@ -15108,7 +15575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>684</v>
       </c>
@@ -15122,7 +15589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51.95" thickBot="1">
+    <row r="9" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>323</v>
       </c>
@@ -15136,7 +15603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>765</v>
       </c>
@@ -15150,7 +15617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>399</v>
       </c>
@@ -15164,7 +15631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>997</v>
       </c>
@@ -15178,7 +15645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="35.1" thickBot="1">
+    <row r="13" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1102</v>
       </c>
@@ -15192,7 +15659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1042</v>
       </c>
@@ -15206,7 +15673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>996</v>
       </c>
@@ -15220,7 +15687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>802</v>
       </c>
@@ -15234,7 +15701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="35.1" thickBot="1">
+    <row r="17" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1203</v>
       </c>
@@ -15248,7 +15715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>785</v>
       </c>
@@ -15262,7 +15729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>743</v>
       </c>
@@ -15276,7 +15743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>261</v>
       </c>
@@ -15290,7 +15757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>207</v>
       </c>
@@ -15304,7 +15771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>928</v>
       </c>
@@ -15318,7 +15785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>210</v>
       </c>
@@ -15332,7 +15799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="35.1" thickBot="1">
+    <row r="24" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1129</v>
       </c>
@@ -15346,7 +15813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>854</v>
       </c>
@@ -15360,7 +15827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>839</v>
       </c>
@@ -15374,7 +15841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="35.1" thickBot="1">
+    <row r="27" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>1153</v>
       </c>
@@ -15388,7 +15855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>269</v>
       </c>
@@ -15402,7 +15869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>332</v>
       </c>
@@ -15416,7 +15883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>685</v>
       </c>
@@ -15430,7 +15897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>310</v>
       </c>
@@ -15444,7 +15911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>133</v>
       </c>
@@ -15506,7 +15973,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -15515,7 +15982,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -15532,7 +15999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>206</v>
       </c>
@@ -15546,7 +16013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>369</v>
       </c>
@@ -15560,7 +16027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="35.1" thickBot="1">
+    <row r="5" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>426</v>
       </c>
@@ -15574,7 +16041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>445</v>
       </c>
@@ -15588,7 +16055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>328</v>
       </c>
@@ -15602,7 +16069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>21</v>
       </c>
@@ -15616,7 +16083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>24</v>
       </c>
@@ -15630,7 +16097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="35.1" thickBot="1">
+    <row r="10" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>430</v>
       </c>
@@ -15644,7 +16111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>379</v>
       </c>
@@ -15658,7 +16125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="35.1" thickBot="1">
+    <row r="12" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>109</v>
       </c>
@@ -15672,7 +16139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="35.1" thickBot="1">
+    <row r="13" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>83</v>
       </c>
@@ -15686,7 +16153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>86</v>
       </c>
@@ -15700,7 +16167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>141</v>
       </c>
@@ -15714,7 +16181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>25</v>
       </c>
@@ -15728,7 +16195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>148</v>
       </c>
@@ -15742,7 +16209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>23</v>
       </c>
@@ -15756,7 +16223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>234</v>
       </c>
@@ -15770,7 +16237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>160</v>
       </c>
@@ -15784,7 +16251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>92</v>
       </c>
@@ -15798,7 +16265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>203</v>
       </c>
@@ -15812,7 +16279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="35.1" thickBot="1">
+    <row r="23" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>82</v>
       </c>
@@ -15826,7 +16293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="35.1" thickBot="1">
+    <row r="24" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15840,7 +16307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>143</v>
       </c>
@@ -15854,7 +16321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -15868,7 +16335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>138</v>
       </c>
@@ -15882,7 +16349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="35.1" thickBot="1">
+    <row r="28" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>708</v>
       </c>
@@ -15896,7 +16363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>61</v>
       </c>
@@ -15955,7 +16422,7 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -15964,7 +16431,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -15981,7 +16448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>759</v>
       </c>
@@ -15995,7 +16462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1046</v>
       </c>
@@ -16009,7 +16476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>973</v>
       </c>
@@ -16023,7 +16490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>347</v>
       </c>
@@ -16037,7 +16504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>215</v>
       </c>
@@ -16051,7 +16518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="35.1" thickBot="1">
+    <row r="8" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>378</v>
       </c>
@@ -16065,7 +16532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>692</v>
       </c>
@@ -16079,7 +16546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="35.1" thickBot="1">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>703</v>
       </c>
@@ -16093,7 +16560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>767</v>
       </c>
@@ -16107,7 +16574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>253</v>
       </c>
@@ -16121,7 +16588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="35.1" thickBot="1">
+    <row r="13" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>659</v>
       </c>
@@ -16135,7 +16602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>295</v>
       </c>
@@ -16149,7 +16616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>239</v>
       </c>
@@ -16163,7 +16630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>407</v>
       </c>
@@ -16177,7 +16644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>264</v>
       </c>
@@ -16191,7 +16658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>23</v>
       </c>
@@ -16205,7 +16672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="35.1" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>787</v>
       </c>
@@ -16219,7 +16686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="35.1" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>373</v>
       </c>
@@ -16233,7 +16700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>218</v>
       </c>
@@ -16247,7 +16714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>355</v>
       </c>
@@ -16299,7 +16766,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -16308,7 +16775,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -16325,7 +16792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>980</v>
       </c>
@@ -16339,7 +16806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1219</v>
       </c>
@@ -16353,7 +16820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>46</v>
       </c>
@@ -16367,7 +16834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>22</v>
       </c>
@@ -16381,7 +16848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>78</v>
       </c>
@@ -16395,7 +16862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>526</v>
       </c>
@@ -16409,7 +16876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1066</v>
       </c>
@@ -16423,7 +16890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>39</v>
       </c>
@@ -16437,7 +16904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>77</v>
       </c>
@@ -16451,7 +16918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="35.1" thickBot="1">
+    <row r="12" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1240</v>
       </c>
@@ -16465,7 +16932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>254</v>
       </c>
@@ -16479,7 +16946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>40</v>
       </c>
@@ -16493,7 +16960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="35.1" thickBot="1">
+    <row r="15" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>17</v>
       </c>
@@ -16507,7 +16974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>131</v>
       </c>
@@ -16521,7 +16988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="51.95" thickBot="1">
+    <row r="17" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1239</v>
       </c>
@@ -16535,7 +17002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>47</v>
       </c>
@@ -16549,7 +17016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>51</v>
       </c>
@@ -16563,7 +17030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>291</v>
       </c>
@@ -16577,7 +17044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>37</v>
       </c>
@@ -16591,7 +17058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1088</v>
       </c>
@@ -16605,7 +17072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="35.1" thickBot="1">
+    <row r="23" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>211</v>
       </c>
@@ -16619,7 +17086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>79</v>
       </c>
@@ -16633,7 +17100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>93</v>
       </c>
@@ -16647,7 +17114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>212</v>
       </c>
@@ -16661,7 +17128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>140</v>
       </c>
@@ -16675,7 +17142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>10</v>
       </c>
@@ -16689,7 +17156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>44</v>
       </c>
@@ -16703,7 +17170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>126</v>
       </c>
@@ -16763,7 +17230,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -16772,7 +17239,7 @@
     <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -16789,7 +17256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="35.1" thickBot="1">
+    <row r="3" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1047</v>
       </c>
@@ -16803,7 +17270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="35.1" thickBot="1">
+    <row r="4" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1130</v>
       </c>
@@ -16817,7 +17284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>739</v>
       </c>
@@ -16831,7 +17298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>496</v>
       </c>
@@ -16845,7 +17312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>94</v>
       </c>
@@ -16859,7 +17326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="35.1" thickBot="1">
+    <row r="8" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1249</v>
       </c>
@@ -16873,7 +17340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>895</v>
       </c>
@@ -16887,7 +17354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="35.1" thickBot="1">
+    <row r="10" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1209</v>
       </c>
@@ -16901,7 +17368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>503</v>
       </c>
@@ -16915,7 +17382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>173</v>
       </c>
@@ -16929,7 +17396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>341</v>
       </c>
@@ -16943,7 +17410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>636</v>
       </c>
@@ -16957,7 +17424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="35.1" thickBot="1">
+    <row r="15" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>272</v>
       </c>
@@ -16971,7 +17438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>394</v>
       </c>
@@ -16985,7 +17452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>844</v>
       </c>
@@ -16999,7 +17466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>770</v>
       </c>
@@ -17013,7 +17480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>232</v>
       </c>
@@ -17027,7 +17494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42</v>
       </c>
@@ -17041,7 +17508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="35.1" thickBot="1">
+    <row r="21" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>255</v>
       </c>
@@ -17055,7 +17522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="35.1" thickBot="1">
+    <row r="22" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>103</v>
       </c>
@@ -17069,7 +17536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>225</v>
       </c>
@@ -17083,7 +17550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>772</v>
       </c>
@@ -17097,7 +17564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>155</v>
       </c>
@@ -17111,7 +17578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>735</v>
       </c>
@@ -17125,7 +17592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>20</v>
       </c>
@@ -17139,7 +17606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>85</v>
       </c>
@@ -17153,7 +17620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>224</v>
       </c>
@@ -17167,7 +17634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="35.1" thickBot="1">
+    <row r="30" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>150</v>
       </c>
@@ -17181,7 +17648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>316</v>
       </c>
@@ -17195,7 +17662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>591</v>
       </c>
@@ -17209,7 +17676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>84</v>
       </c>
@@ -17223,7 +17690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>71</v>
       </c>
@@ -17237,7 +17704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>907</v>
       </c>
@@ -17251,7 +17718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>456</v>
       </c>
@@ -17265,7 +17732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1">
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>402</v>
       </c>

--- a/Snr Sheet.xlsx
+++ b/Snr Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D690255-CE44-417C-8DCE-534B3E5887EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D80C10E-0739-46FA-B5B9-FDB962016405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" firstSheet="17" activeTab="15" xr2:uid="{D5265C2E-6317-3044-9590-C765FDB70368}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="761">
   <si>
     <t>DYNAMIC PROGRAMMING</t>
   </si>
@@ -2334,12 +2334,30 @@
   <si>
     <t>Not Able To Solve In First Attempt</t>
   </si>
+  <si>
+    <t>Subscribe For The Prob</t>
+  </si>
+  <si>
+    <t>Disliked</t>
+  </si>
+  <si>
+    <t>Another way is all num are positive so we can mark them as negative once we found at that index and when we find another one we can conclude its duplicate</t>
+  </si>
+  <si>
+    <t>Diff Approacoh -&gt;</t>
+  </si>
+  <si>
+    <t>Go Through Follow Up (Imp)</t>
+  </si>
+  <si>
+    <t>Follow Up 1-&gt;For This We Store The Prev Row In Buffer And Compare The Current Row With Prev By Shifting Prev Row By One Now If Both Are Same Then We Check For Further  Follow Up 2-&gt;I think the second one, you basically need two file pointer, the first one start at [0][0], the second one starts at [1][1], load two elements each time, compare and move</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2407,8 +2425,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2430,6 +2477,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2499,7 +2564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2545,9 +2610,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2555,6 +2617,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2964,10 +3053,10 @@
       <c r="T2" s="14"/>
     </row>
     <row r="3" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -3012,16 +3101,16 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
@@ -3036,18 +3125,18 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
@@ -3060,22 +3149,22 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
@@ -3084,21 +3173,21 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
       <c r="T8" s="16"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -3108,14 +3197,14 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -3132,22 +3221,22 @@
       <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="5:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
@@ -3180,11 +3269,11 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -6431,10 +6520,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45438C9-D009-8F4A-BE62-C097380EFD67}">
-  <dimension ref="A2:F109"/>
+  <dimension ref="A2:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6443,10 +6532,11 @@
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="34.125" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="153.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -6459,11 +6549,8 @@
       <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>832</v>
       </c>
@@ -6476,12 +6563,12 @@
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" t="s">
+      <c r="E3" s="24" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>905</v>
       </c>
@@ -6494,12 +6581,12 @@
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" t="s">
+      <c r="E4" s="24" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>950</v>
       </c>
@@ -6512,14 +6599,14 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="F5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>561</v>
       </c>
@@ -6532,12 +6619,12 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1051</v>
       </c>
@@ -6550,12 +6637,12 @@
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>723</v>
       </c>
@@ -6568,12 +6655,14 @@
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" t="s">
+      <c r="E8" s="24" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="21" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1002</v>
       </c>
@@ -6586,12 +6675,12 @@
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>969</v>
       </c>
@@ -6604,12 +6693,14 @@
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" t="s">
+      <c r="E10" s="24" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="22" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>867</v>
       </c>
@@ -6622,12 +6713,12 @@
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>442</v>
       </c>
@@ -6640,12 +6731,17 @@
       <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="G12" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>766</v>
       </c>
@@ -6658,12 +6754,17 @@
       <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="G13" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>280</v>
       </c>
@@ -6676,12 +6777,14 @@
       <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" t="s">
+      <c r="E14" s="24" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="21" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1074</v>
       </c>
@@ -6694,12 +6797,12 @@
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" t="s">
+      <c r="E15" s="24" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>695</v>
       </c>
@@ -6712,10 +6815,10 @@
       <c r="D16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" t="s">
-        <v>753</v>
-      </c>
+      <c r="E16" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -6730,10 +6833,10 @@
       <c r="D17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" t="s">
-        <v>753</v>
-      </c>
+      <c r="E17" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -6748,9 +6851,11 @@
       <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" t="s">
+      <c r="E18" s="24" t="s">
         <v>753</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6766,10 +6871,10 @@
       <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" t="s">
-        <v>753</v>
-      </c>
+      <c r="E19" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -6784,10 +6889,10 @@
       <c r="D20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" t="s">
-        <v>753</v>
-      </c>
+      <c r="E20" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -6802,10 +6907,10 @@
       <c r="D21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" t="s">
-        <v>753</v>
-      </c>
+      <c r="E21" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -6820,10 +6925,10 @@
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" t="s">
-        <v>753</v>
-      </c>
+      <c r="E22" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -6838,10 +6943,10 @@
       <c r="D23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" t="s">
+      <c r="E23" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -6856,10 +6961,10 @@
       <c r="D24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" t="s">
+      <c r="E24" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -6874,10 +6979,10 @@
       <c r="D25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" t="s">
+      <c r="E25" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -6892,10 +6997,10 @@
       <c r="D26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" t="s">
-        <v>753</v>
-      </c>
+      <c r="E26" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -6910,10 +7015,10 @@
       <c r="D27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" t="s">
-        <v>753</v>
-      </c>
+      <c r="E27" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -6928,10 +7033,10 @@
       <c r="D28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" t="s">
+      <c r="E28" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -6946,10 +7051,10 @@
       <c r="D29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" t="s">
+      <c r="E29" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -6964,10 +7069,10 @@
       <c r="D30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" t="s">
+      <c r="E30" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -6982,10 +7087,10 @@
       <c r="D31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" t="s">
+      <c r="E31" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -7000,10 +7105,10 @@
       <c r="D32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" t="s">
+      <c r="E32" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -7018,10 +7123,10 @@
       <c r="D33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" t="s">
+      <c r="E33" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
@@ -7036,10 +7141,10 @@
       <c r="D34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" t="s">
+      <c r="E34" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
@@ -7054,10 +7159,10 @@
       <c r="D35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" t="s">
+      <c r="E35" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
@@ -7072,10 +7177,10 @@
       <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" t="s">
+      <c r="E36" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -7090,10 +7195,10 @@
       <c r="D37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" t="s">
+      <c r="E37" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
@@ -7108,10 +7213,10 @@
       <c r="D38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" t="s">
+      <c r="E38" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
@@ -7126,10 +7231,10 @@
       <c r="D39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" t="s">
+      <c r="E39" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
@@ -7144,10 +7249,10 @@
       <c r="D40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" t="s">
+      <c r="E40" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
@@ -7162,10 +7267,10 @@
       <c r="D41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" t="s">
+      <c r="E41" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -7180,10 +7285,10 @@
       <c r="D42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" t="s">
+      <c r="E42" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
@@ -7198,10 +7303,10 @@
       <c r="D43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" t="s">
+      <c r="E43" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -7216,10 +7321,10 @@
       <c r="D44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" t="s">
+      <c r="E44" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -7234,10 +7339,10 @@
       <c r="D45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" t="s">
+      <c r="E45" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
@@ -7252,10 +7357,10 @@
       <c r="D46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" t="s">
+      <c r="E46" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
@@ -7270,10 +7375,10 @@
       <c r="D47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" t="s">
+      <c r="E47" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -7288,10 +7393,10 @@
       <c r="D48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" t="s">
+      <c r="E48" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
@@ -7306,10 +7411,10 @@
       <c r="D49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" t="s">
+      <c r="E49" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
@@ -7324,10 +7429,10 @@
       <c r="D50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" t="s">
+      <c r="E50" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
@@ -7342,10 +7447,10 @@
       <c r="D51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" t="s">
+      <c r="E51" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -7360,10 +7465,10 @@
       <c r="D52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="19"/>
-      <c r="F52" t="s">
+      <c r="E52" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
@@ -7378,10 +7483,10 @@
       <c r="D53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="19"/>
-      <c r="F53" t="s">
+      <c r="E53" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -7396,10 +7501,10 @@
       <c r="D54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" t="s">
+      <c r="E54" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
@@ -7414,10 +7519,10 @@
       <c r="D55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="19"/>
-      <c r="F55" t="s">
+      <c r="E55" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -7432,10 +7537,10 @@
       <c r="D56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" t="s">
+      <c r="E56" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -7450,10 +7555,10 @@
       <c r="D57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" t="s">
+      <c r="E57" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
@@ -7468,10 +7573,10 @@
       <c r="D58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="19"/>
-      <c r="F58" t="s">
+      <c r="E58" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -7486,10 +7591,10 @@
       <c r="D59" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="19"/>
-      <c r="F59" t="s">
+      <c r="E59" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
@@ -7504,10 +7609,10 @@
       <c r="D60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="19"/>
-      <c r="F60" t="s">
+      <c r="E60" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -7522,10 +7627,10 @@
       <c r="D61" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="19"/>
-      <c r="F61" t="s">
+      <c r="E61" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
@@ -7540,10 +7645,10 @@
       <c r="D62" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" t="s">
+      <c r="E62" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -7558,10 +7663,10 @@
       <c r="D63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="19"/>
-      <c r="F63" t="s">
+      <c r="E63" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
@@ -7576,10 +7681,10 @@
       <c r="D64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="19"/>
-      <c r="F64" t="s">
+      <c r="E64" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
@@ -7594,10 +7699,10 @@
       <c r="D65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" t="s">
+      <c r="E65" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
@@ -7612,10 +7717,10 @@
       <c r="D66" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" t="s">
+      <c r="E66" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
@@ -7630,10 +7735,10 @@
       <c r="D67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" t="s">
+      <c r="E67" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
@@ -7648,10 +7753,10 @@
       <c r="D68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" t="s">
+      <c r="E68" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
@@ -7666,10 +7771,10 @@
       <c r="D69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" t="s">
+      <c r="E69" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
@@ -7684,10 +7789,10 @@
       <c r="D70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="19"/>
-      <c r="F70" t="s">
+      <c r="E70" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
@@ -7702,10 +7807,10 @@
       <c r="D71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="19"/>
-      <c r="F71" t="s">
+      <c r="E71" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
@@ -7720,10 +7825,10 @@
       <c r="D72" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E72" s="19"/>
-      <c r="F72" t="s">
+      <c r="E72" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
@@ -7738,10 +7843,10 @@
       <c r="D73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" t="s">
+      <c r="E73" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
@@ -7756,10 +7861,10 @@
       <c r="D74" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="19"/>
-      <c r="F74" t="s">
+      <c r="E74" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
@@ -7774,10 +7879,10 @@
       <c r="D75" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="19"/>
-      <c r="F75" t="s">
+      <c r="E75" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
@@ -7792,10 +7897,10 @@
       <c r="D76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="19"/>
-      <c r="F76" t="s">
+      <c r="E76" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
@@ -7810,10 +7915,10 @@
       <c r="D77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" t="s">
+      <c r="E77" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
@@ -7828,10 +7933,10 @@
       <c r="D78" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="19"/>
-      <c r="F78" t="s">
+      <c r="E78" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
@@ -7846,10 +7951,10 @@
       <c r="D79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="19"/>
-      <c r="F79" t="s">
+      <c r="E79" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
@@ -7864,10 +7969,10 @@
       <c r="D80" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="19"/>
-      <c r="F80" t="s">
+      <c r="E80" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
@@ -7882,10 +7987,10 @@
       <c r="D81" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="19"/>
-      <c r="F81" t="s">
+      <c r="E81" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
@@ -7900,10 +8005,10 @@
       <c r="D82" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="19"/>
-      <c r="F82" t="s">
+      <c r="E82" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
@@ -7918,10 +8023,10 @@
       <c r="D83" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="19"/>
-      <c r="F83" t="s">
+      <c r="E83" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
@@ -7936,10 +8041,10 @@
       <c r="D84" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="19"/>
-      <c r="F84" t="s">
+      <c r="E84" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
@@ -7954,10 +8059,10 @@
       <c r="D85" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="19"/>
-      <c r="F85" t="s">
+      <c r="E85" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
@@ -7972,10 +8077,10 @@
       <c r="D86" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="19"/>
-      <c r="F86" t="s">
+      <c r="E86" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
@@ -7990,10 +8095,10 @@
       <c r="D87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="19"/>
-      <c r="F87" t="s">
+      <c r="E87" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
@@ -8008,10 +8113,10 @@
       <c r="D88" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="19"/>
-      <c r="F88" t="s">
+      <c r="E88" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
@@ -8026,10 +8131,10 @@
       <c r="D89" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="19"/>
-      <c r="F89" t="s">
+      <c r="E89" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
@@ -8044,10 +8149,10 @@
       <c r="D90" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="19"/>
-      <c r="F90" t="s">
+      <c r="E90" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
@@ -8062,10 +8167,10 @@
       <c r="D91" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="19"/>
-      <c r="F91" t="s">
+      <c r="E91" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
@@ -8080,10 +8185,10 @@
       <c r="D92" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="19"/>
-      <c r="F92" t="s">
+      <c r="E92" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
@@ -8098,10 +8203,10 @@
       <c r="D93" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="19"/>
-      <c r="F93" t="s">
+      <c r="E93" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
@@ -8116,10 +8221,10 @@
       <c r="D94" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="19"/>
-      <c r="F94" t="s">
+      <c r="E94" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
@@ -8134,10 +8239,10 @@
       <c r="D95" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="19"/>
-      <c r="F95" t="s">
+      <c r="E95" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F95" s="18"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
@@ -8152,10 +8257,10 @@
       <c r="D96" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="19"/>
-      <c r="F96" t="s">
+      <c r="E96" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
@@ -8170,10 +8275,10 @@
       <c r="D97" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="19"/>
-      <c r="F97" t="s">
+      <c r="E97" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
@@ -8188,10 +8293,10 @@
       <c r="D98" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="19"/>
-      <c r="F98" t="s">
+      <c r="E98" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
@@ -8206,10 +8311,10 @@
       <c r="D99" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" t="s">
+      <c r="E99" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
@@ -8224,10 +8329,10 @@
       <c r="D100" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="19"/>
-      <c r="F100" t="s">
+      <c r="E100" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
@@ -8242,10 +8347,10 @@
       <c r="D101" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="19"/>
-      <c r="F101" t="s">
+      <c r="E101" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
@@ -8260,10 +8365,10 @@
       <c r="D102" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="19"/>
-      <c r="F102" t="s">
+      <c r="E102" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
@@ -8278,10 +8383,10 @@
       <c r="D103" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="19"/>
-      <c r="F103" t="s">
+      <c r="E103" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
@@ -8296,10 +8401,10 @@
       <c r="D104" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="19"/>
-      <c r="F104" t="s">
+      <c r="E104" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
@@ -8314,10 +8419,10 @@
       <c r="D105" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="19"/>
-      <c r="F105" t="s">
+      <c r="E105" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F105" s="18"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
@@ -8332,10 +8437,10 @@
       <c r="D106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E106" s="19"/>
-      <c r="F106" t="s">
+      <c r="E106" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
@@ -8350,10 +8455,10 @@
       <c r="D107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="19"/>
-      <c r="F107" t="s">
+      <c r="E107" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
@@ -8368,16 +8473,16 @@
       <c r="D108" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E108" s="19"/>
-      <c r="F108" t="s">
+      <c r="E108" s="24" t="s">
         <v>753</v>
       </c>
+      <c r="F108" s="18"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E109" s="19"/>
+      <c r="F109" s="18"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E108">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D108">
     <sortCondition descending="1" ref="C1:C108"/>
   </sortState>
   <hyperlinks>
@@ -8489,6 +8594,7 @@
     <hyperlink ref="B28" r:id="rId106" display="https://leetcode.com/problems/array-nesting" xr:uid="{09577079-D346-0D49-8AAE-CF6F904A4BE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId107"/>
 </worksheet>
 </file>
 

--- a/Snr Sheet.xlsx
+++ b/Snr Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D80C10E-0739-46FA-B5B9-FDB962016405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4495C6B5-B603-4FEB-A1E7-1E180FC8878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" firstSheet="17" activeTab="15" xr2:uid="{D5265C2E-6317-3044-9590-C765FDB70368}"/>
   </bookViews>
@@ -2637,14 +2637,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3053,10 +3053,10 @@
       <c r="T2" s="14"/>
     </row>
     <row r="3" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -3101,16 +3101,16 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
@@ -3125,18 +3125,18 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
@@ -3149,22 +3149,22 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
@@ -3173,21 +3173,21 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
       <c r="T8" s="16"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -3197,14 +3197,14 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -3221,22 +3221,22 @@
       <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="5:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
@@ -3269,11 +3269,11 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -6818,7 +6818,7 @@
       <c r="E16" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -6946,7 +6946,7 @@
       <c r="E23" s="24" t="s">
         <v>753</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">

--- a/Snr Sheet.xlsx
+++ b/Snr Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4495C6B5-B603-4FEB-A1E7-1E180FC8878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657F3C46-5C43-4240-A18F-C9A1CA0E4B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" firstSheet="17" activeTab="15" xr2:uid="{D5265C2E-6317-3044-9590-C765FDB70368}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="762">
   <si>
     <t>DYNAMIC PROGRAMMING</t>
   </si>
@@ -2352,12 +2352,15 @@
   <si>
     <t>Follow Up 1-&gt;For This We Store The Prev Row In Buffer And Compare The Current Row With Prev By Shifting Prev Row By One Now If Both Are Same Then We Check For Further  Follow Up 2-&gt;I think the second one, you basically need two file pointer, the first one start at [0][0], the second one starts at [1][1], load two elements each time, compare and move</t>
   </si>
+  <si>
+    <t>Observer that the graph formed by them is always cyclic the smaller or the bigger one so we can find the no of nodes in each cycle which can be done by dfs. Try To do iterative way also</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2450,6 +2453,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2564,7 +2574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2645,6 +2655,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6522,8 +6535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45438C9-D009-8F4A-BE62-C097380EFD67}">
   <dimension ref="A2:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6820,7 +6833,7 @@
       </c>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>566</v>
       </c>
@@ -6838,7 +6851,7 @@
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>243</v>
       </c>
@@ -6858,7 +6871,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>238</v>
       </c>
@@ -6876,7 +6889,7 @@
       </c>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>78</v>
       </c>
@@ -6894,7 +6907,7 @@
       </c>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>283</v>
       </c>
@@ -6912,7 +6925,7 @@
       </c>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>485</v>
       </c>
@@ -6930,7 +6943,7 @@
       </c>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1031</v>
       </c>
@@ -6948,7 +6961,7 @@
       </c>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>169</v>
       </c>
@@ -6966,7 +6979,7 @@
       </c>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>835</v>
       </c>
@@ -6984,7 +6997,7 @@
       </c>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>448</v>
       </c>
@@ -7002,7 +7015,7 @@
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>217</v>
       </c>
@@ -7020,7 +7033,7 @@
       </c>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>565</v>
       </c>
@@ -7036,9 +7049,12 @@
       <c r="E28" s="24" t="s">
         <v>753</v>
       </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="29"/>
+      <c r="G28" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>216</v>
       </c>
@@ -7056,7 +7072,7 @@
       </c>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>122</v>
       </c>
@@ -7074,7 +7090,7 @@
       </c>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>667</v>
       </c>
@@ -7092,7 +7108,7 @@
       </c>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>48</v>
       </c>
